--- a/0_data/8_predictions/model_evaluation.xlsx
+++ b/0_data/8_predictions/model_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,66 @@
           <t>9_long_large_50</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>4_v1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>4_v2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>4_v3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>5_v1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>5_v2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>5_v3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>7_v1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>7_v2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>7_v3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>5_v3_b4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>5_v3_b8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>5_v3_b16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +573,42 @@
       <c r="J2" t="n">
         <v>18</v>
       </c>
+      <c r="K2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +643,42 @@
       <c r="J3" t="n">
         <v>3.61</v>
       </c>
+      <c r="K3" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +713,42 @@
       <c r="J4" t="n">
         <v>25.4</v>
       </c>
+      <c r="K4" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +783,42 @@
       <c r="J5" t="n">
         <v>6.6</v>
       </c>
+      <c r="K5" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +853,42 @@
       <c r="J6" t="n">
         <v>0.01</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +923,42 @@
       <c r="J7" t="n">
         <v>2.77</v>
       </c>
+      <c r="K7" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -744,6 +1020,78 @@
    0   1   1   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[151  32 179 122  85 182   7 125  37  76  59  16  71   6  37  25   7  16
+   1  13   3   7   1   2   2   0   1   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[420  53 524 194  52  86   0  55  13  26   6   0  21   0   1   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[444 118 466 240  43  59   1  39   3  11   6   0   7   0   0   0   1   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[143  57 213 158  99 225  12 168  51  70  78  13  61   6  29  11   8  10
+   0  12   1   1   0   0   3   0   0   0   0   0   0   1   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[322  83 500 198  29  74   0  75  18  21   3   3   6   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[408  69 531 219  51  78   0  65   5  13   5   0   6   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[290  92 432 271 201 401  30 327  92 151 134  36 147  15  72  30  22  28
+   1  16   3   6   3   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[793 121 889 328  90 259   1 126  15  34  25   0  27   2   7   0   0   0
+   1   1   0   0   0   0   1   0   0   1   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[883 110 869 287 116 248   1 141  27  52  24   4  25   1   2   0   0   0
+   0   0   1   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[324  94 491 206  56  88   0  58   7   9   2   0   7   0   0   0   0   0
+   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>[376 187 487 147  67  83   1  64  12   3   6   0   3   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>[278   6 634 332  46  56   0  67   3   7   3   0   6   0   3   1   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -796,6 +1144,66 @@
           <t>[515  15 573  20 568 114  11 362  10 403   8 164]</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[242   0 233   0 281  40   2 180   2 208   1  79]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[330   0 264   1 242  29   0 324   0 236   0  30]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[261  15 187  13 211  89   1 304  17 265  15  65]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[260   1 244   2 283  55   4 240   2 243   1 100]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[236   0 279   0 262  70   0 219   1 220   1  49]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[247   0 312   0 340  29   0 264   1 210   0  52]</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>[522   5 481   7 581 113  16 471   9 415   4 182]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[436   1 467   4 490  17   0 446   1 731   1 132]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[484  14 507  26 707 135  22 342  85 371  37  67]</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[235   0 240   0 313  31   0 172   1 275   0  81]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>[250   0 234   0 272  55   2 192   0 257   0 179]</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>[229   0 314   0 427   0   0 186   0 273   0  18]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -848,6 +1256,66 @@
           <t>{'C': 515, 'C#': 15, 'D': 573, 'D#': 20, 'E': 568, 'F': 114, 'F#': 11, 'G': 362, 'G#': 10, 'A': 403, 'A#': 8, 'B': 164}</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{'C': 242, 'C#': 0, 'D': 233, 'D#': 0, 'E': 281, 'F': 40, 'F#': 2, 'G': 180, 'G#': 2, 'A': 208, 'A#': 1, 'B': 79}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{'C': 330, 'C#': 0, 'D': 264, 'D#': 1, 'E': 242, 'F': 29, 'F#': 0, 'G': 324, 'G#': 0, 'A': 236, 'A#': 0, 'B': 30}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{'C': 261, 'C#': 15, 'D': 187, 'D#': 13, 'E': 211, 'F': 89, 'F#': 1, 'G': 304, 'G#': 17, 'A': 265, 'A#': 15, 'B': 65}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{'C': 260, 'C#': 1, 'D': 244, 'D#': 2, 'E': 283, 'F': 55, 'F#': 4, 'G': 240, 'G#': 2, 'A': 243, 'A#': 1, 'B': 100}</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{'C': 236, 'C#': 0, 'D': 279, 'D#': 0, 'E': 262, 'F': 70, 'F#': 0, 'G': 219, 'G#': 1, 'A': 220, 'A#': 1, 'B': 49}</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'C': 247, 'C#': 0, 'D': 312, 'D#': 0, 'E': 340, 'F': 29, 'F#': 0, 'G': 264, 'G#': 1, 'A': 210, 'A#': 0, 'B': 52}</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{'C': 522, 'C#': 5, 'D': 481, 'D#': 7, 'E': 581, 'F': 113, 'F#': 16, 'G': 471, 'G#': 9, 'A': 415, 'A#': 4, 'B': 182}</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'C': 436, 'C#': 1, 'D': 467, 'D#': 4, 'E': 490, 'F': 17, 'F#': 0, 'G': 446, 'G#': 1, 'A': 731, 'A#': 1, 'B': 132}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>{'C': 484, 'C#': 14, 'D': 507, 'D#': 26, 'E': 707, 'F': 135, 'F#': 22, 'G': 342, 'G#': 85, 'A': 371, 'A#': 37, 'B': 67}</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>{'C': 235, 'C#': 0, 'D': 240, 'D#': 0, 'E': 313, 'F': 31, 'F#': 0, 'G': 172, 'G#': 1, 'A': 275, 'A#': 0, 'B': 81}</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>{'C': 250, 'C#': 0, 'D': 234, 'D#': 0, 'E': 272, 'F': 55, 'F#': 2, 'G': 192, 'G#': 0, 'A': 257, 'A#': 0, 'B': 179}</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>{'C': 229, 'C#': 0, 'D': 314, 'D#': 0, 'E': 427, 'F': 0, 'F#': 0, 'G': 186, 'G#': 0, 'A': 273, 'A#': 0, 'B': 18}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -881,6 +1349,42 @@
       </c>
       <c r="J11" t="n">
         <v>12.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1033,6 +1537,198 @@
  [ 44   0  18   0  13   3   1  22   0  36   0  25]]</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[50  0 49  0 49  7  0 30  0 39  0 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [39  0 35  0 54 12  0 32  0 40  0 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [52  0 46  0 66  8  0 44  1 46  1 14]
+ [ 5  0 10  0 11  2  0  3  0  5  0  4]
+ [ 0  0  1  0  0  0  0  1  0  0  0  0]
+ [27  0 40  0 41  4  0 32  1 28  0  7]
+ [ 1  0  1  0  0  0  0  0  0  0  0  0]
+ [49  0 36  0 43  5  2 27  0 34  0 12]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0]
+ [17  0 13  0 16  2  0 11  0 15  0  5]]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[[105   0  96   1  25   2   0  35   0  55   0  11]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [107   0  71   0  66   1   0  13   0   4   0   1]
+ [  0   0   1   0   0   0   0   0   0   0   0   0]
+ [ 29   0  70   0  58  13   0  53   0  17   0   1]
+ [  1   0   1   0  15   2   0   9   0   1   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 29   0  16   0  63   9   0 125   0  75   0   5]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 44   0   8   0  15   2   0  84   0  75   0   7]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 13   0   1   0   0   0   0   3   0   8   0   5]]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>[[ 90   1  45   0  15   3   0  19   0  67   0  21]
+ [  0   4   0   5   0   2   0   0   1   0   2   1]
+ [ 58   2  55   0  53   1   0   9   0   4   0   5]
+ [  1   4   0   2   0   4   0   0   0   0   1   1]
+ [ 13   0  69   0  37  25   0  54   1   6   1   5]
+ [  1   1   6   5  34  22   0  11   2   5   1   0]
+ [  0   0   0   0   0   1   0   0   0   0   0   0]
+ [ 18   0   7   0  51  24   0 124   0  77   0   1]
+ [  0   2   0   1   0   4   1   0   7   1   0   1]
+ [ 52   0   1   0  18   1   0  80   1  92   0  18]
+ [  0   1   1   0   0   1   0   0   4   0   7   1]
+ [ 28   0   3   0   0   0   0   6   1  13   3  11]]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[[44  0 44  1 51  3  1 42  0 42  0 30]
+ [ 0  0  0  0  1  0  0  0  0  0  0  0]
+ [37  0 32  0 50 14  2 42  0 47  0 18]
+ [ 0  0  0  0  0  0  0  1  0  1  0  0]
+ [54  1 50  0 53 14  0 40  1 51  1 17]
+ [ 7  0  5  0 13  2  0 11  0 12  0  5]
+ [ 0  0  1  0  1  0  0  0  0  1  0  1]
+ [45  0 46  1 46 11  0 38  0 41  0 12]
+ [ 1  0  0  0  0  0  0  0  0  1  0  0]
+ [55  0 49  0 43  6  1 49  1 30  0  9]
+ [ 0  0  1  0  0  0  0  0  0  0  0  0]
+ [17  0 15  0 23  4  0 16  0 17  0  8]]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[[ 67   0  55   0  18  15   0  17   1  45   0  17]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 64   0 113   0  84   1   0  10   0   3   0   4]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 17   0  88   0  42  36   0  46   0  31   0   1]
+ [  9   0   6   0  19   7   0  27   0   2   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 11   0   3   0  61   8   0  52   0  81   0   1]
+ [  0   0   0   0   0   0   0   0   0   0   1   0]
+ [ 54   0  12   0  31   2   0  59   0  41   0  20]
+ [  0   0   0   0   0   1   0   0   0   0   0   0]
+ [ 14   0   2   0   5   0   0   6   0  16   0   6]]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[[ 67   0  88   0  19   0   0  14   0  40   0  19]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 76   0  93   0  95   4   0  24   0  13   0   4]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 24   0 106   0 106  15   0  57   1  29   0   2]
+ [  1   0   1   0  18   3   0   5   0   1   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 17   0  17   0  78   7   0  90   0  49   0   4]
+ [  0   0   0   0   0   0   0   0   0   1   0   0]
+ [ 46   0   5   0  20   0   0  65   0  53   0  21]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 16   0   2   0   1   0   0   7   0  24   0   2]]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>[[ 94   1  91   4 107  18   3  85   1  74   0  43]
+ [  0   0   0   0   1   0   1   1   0   2   0   0]
+ [ 95   1  72   2  90  21   2  95   1  74   1  26]
+ [  1   0   2   0   2   0   0   1   0   1   0   0]
+ [111   0 107   0 124  21   5  88   1  86   1  35]
+ [ 21   0  21   0  27   3   0  17   0  15   0   9]
+ [  1   0   3   0   5   3   0   2   0   2   0   0]
+ [ 79   2  82   0 104  24   0  76   3  76   0  24]
+ [  3   0   2   0   1   1   0   0   0   1   0   1]
+ [ 82   1  75   0  81  12   4  72   1  55   2  30]
+ [  2   0   0   0   0   0   0   1   0   1   0   0]
+ [ 31   0  25   1  39  10   1  32   2  27   0  14]]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[[112   0 117   0  35   5   0  32   0  76   1  57]
+ [  0   0   0   0   0   0   0   0   0   1   0   0]
+ [116   1 131   1 130   1   0  31   0  43   0  11]
+ [  0   0   2   1   0   0   0   0   0   1   0   0]
+ [ 47   0 131   1 135   7   0  87   0  76   0   6]
+ [  0   0   1   0   7   2   0   4   0   3   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 27   0  41   0  96   2   0 104   0 170   0   5]
+ [  0   0   1   0   0   0   0   0   0   0   0   0]
+ [ 86   0  38   0  84   0   0 173   1 316   0  32]
+ [  0   0   0   1   0   0   0   0   0   0   0   0]
+ [ 46   0   5   0   2   0   0  14   0  45   0  20]]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[[138   2 129   3  40  10   0  52   3  75   3  28]
+ [  2   1   2   0   0   3   0   0   5   0   1   0]
+ [138   1 125   1 149   8   4  39   0  35   0   4]
+ [  1   3   0   4   0   7   0   2   7   0   2   0]
+ [ 60   1 162   0 355  25  10  51   1  40   0   2]
+ [  7   2   8   9  34  30   0  16  15   8   6   0]
+ [  1   0   3   0   9   0   3   1   0   4   1   0]
+ [ 41   0  32   1  63  24   1  97   1  80   1   1]
+ [  2   3   0   5   1  20   1   1  36   3  12   0]
+ [ 79   1  41   0  53   5   2  76   2  94   0  18]
+ [  3   0   2   3   0   3   0   0  15   0  11   0]
+ [ 11   0   3   0   2   0   1   4   0  32   0  14]]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[[47  0 68  0 26  0  0 11  0 44  0 38]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [70  0 57  0 76  4  0 14  0 15  0  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [22  0 94  0 97 16  0 49  1 27  0  4]
+ [ 1  0  1  0 18  6  0  3  0  2  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 9  0 14  0 50  5  0 30  0 60  0  4]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0]
+ [63  0  6  0 43  0  0 56  0 85  0 22]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [21  0  0  0  3  0  0  8  0 39  0  9]]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[[40  0 72  0 18  2  0 24  0 32  0 61]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [80  0 62  0 61  4  0 13  0  5  0  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [19  0 66  0 94 23  0 31  0 31  0  6]
+ [ 0  0  4  0 31  3  0  9  0  8  0  0]
+ [ 0  0  0  0  1  0  0  1  0  0  0  0]
+ [14  0 13  0 40 17  2 35  0 62  0  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [27  0 13  0 20  5  0 58  0 92  0 42]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [69  0  4  0  6  1  0 20  0 25  0 53]]</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>[[ 23   0  77   0  27   0   0   3   0  95   0   4]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 89   0  53   0 145   0   0  11   0  14   0   2]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 21   0 173   0 125   0   0  76   0  28   0   1]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [  8   0   6   0  81   0   0  23   0  67   0   0]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 86   0   5   0  47   0   0  69   0  57   0   8]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [  2   0   0   0   0   0   0   1   0  12   0   3]]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1067,6 +1763,42 @@
       <c r="J13" t="n">
         <v>552.6</v>
       </c>
+      <c r="K13" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>287</v>
+      </c>
+      <c r="O13" t="n">
+        <v>267.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>291</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>561.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>545.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>559.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>289.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1101,6 +1833,42 @@
       <c r="J14" t="n">
         <v>6.14</v>
       </c>
+      <c r="K14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1135,6 +1903,42 @@
       <c r="J15" t="n">
         <v>2.67</v>
       </c>
+      <c r="K15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1195,6 +1999,80 @@
         <is>
           <t>[159 781 521 410 271  98  84  60  98  52  41  45  47  20  11  13  29   6
    4   3   2   0   1   1   0   1   0   1   1   1   0   0]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[ 75 100 136  97 156  81  94  72 113  63  68  38  54  34  21  19  11  17
+   4   1   3   0   1   1   3   0   1   1   0   0   1   0]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[ 18 381 799  45  77   2  47  13  22   0   7   3   6   0   9   0  20   1
+   0   0   1   0   0   0   1   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[ 32 706 455  54  81  11   5   7  56   0   2   1  13   6   1   0   8   2
+   1   0   0   0   0   0   0   0   1   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[104 112 154 122 182  79 120  84 103  45  83  35  61  37  23  13  23  15
+   7   3   6   4   4   1   4   1   1   1   1   0   0   0]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[ 24 485 365 278  93  12  13  17  12   3   3   1  11   2   2   2   2   0
+   0   2   3   0   1   0   2   0   1   0   0   1   0   0]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[ 50 681 465  89  63  12  16  18  13   6   5   8  22   2   1   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[191 271 348 212 327 193 260 151 190 114 153  94  95  55  46  32  36  10
+  10   3   5   2   3   2   2   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[ 173  421 1054  180  233   72  179   83  107   24   39   30   29   21
+   18   18   28    1    2    2    5    1    0    0    1    1    0    0
+    1    0    0    0]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[  97  322 1095  194  345   47  268   53   88   18   69   17   52   17
+   29    7   50    7    9    2    6    0    1    0    0    0    0    0
+    0    0    0    0]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[ 78 377 626  46 141   5   7   1  26   0   4   5  18   0   0   0  10   2
+   1   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>[100 499 639  66  64  14  16   4  15   5   2   1   3   1   1   0   6   1
+   2   0   1   0   2   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[  8 110 708  93 356   3  34   1  61   1   3   0  13   0   3   0  39   1
+   1   0   3   0   0   0   1   0   0   0   3   0   0   0]</t>
         </is>
       </c>
     </row>
@@ -1277,6 +2155,103 @@
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[  0 350   0 235   0  58   0 450   0  12   0  16   8   6   0  77   0   3
+   3   5   1   2   0   8   0   0   1   2   0   1   0  29   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[  0 676   0 404   0  13   0 206   0  14   0  41   2   8   1  48   0   4
+   1   3   1   1   0   3   0   0   2   3   0   0   0  22   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[  0 819   0 207   0  46   0 247   0  50   0  14   4   6   0  30   0   4
+   0   3   0   0   0   3   0   1   0   2   0   1   0   6   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[  3 462   0 392   0  71   0 296   0  23   0  31  10   8   0  85   0   5
+   3   3   1   3   0  10   0   5   0   2   0   0   0  20   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[  0 423   0 423   0  36   0 294   0  27   0   5   2   3   0 109   0   1
+   5   0   0   0   0   1   0   1   0   0   1   0   0   6   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[  0 758   0 273   0  17   0 305   0  14   0  14   2  13   0  31   0   9
+   6   2   2   1   0   2   0   1   0   0   0   0   0   3   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[   0 1248    0  584    0  157    0  481    0   47    0   37    5   23
+    0  133    0    7    2   15    1    3    0   13    0    6    1    2
+    0    1    0   39    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0]</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[  0 847   0 543   0 199   0 664   0  84   0 123   6  12   0 136   0  13
+   4  15   9   6   0  12   0   6   7   3   4   1   0  29   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[  1 509   0 890   0  67   0 683   0  41   0 244   8  22   0 105   0  18
+  10  19  18  13   0  33   0   6   3   6   1   5   0  89   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[  0 487   0 316   0  24   0 363   0  12   0   3   0   2   0 111   0   0
+   1   2   3   3   0  14   0   0   3   0   0   1   0   2   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>[  0 807   0 221   0  38   0 290   0  10   0   4   2   2   0  53   0   0
+   0   1   0   0   0   1   0   0   0   0   0   0   0  11   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>[  0 333   0 471   0  51   0 301   0   7   0  25   7   6   0 175   0   5
+   0   3   2   1   0   7   0   0   0   0   0   1   0  50   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1327,6 +2302,66 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>{0: 0, 1: 1, 2: 1175, 3: 0, 4: 485, 5: 0, 6: 125, 7: 0, 8: 703, 9: 0, 10: 38, 11: 0, 12: 39, 13: 10, 14: 12, 15: 0, 16: 99, 17: 0, 18: 4, 19: 5, 20: 11, 21: 4, 22: 2, 23: 0, 24: 5, 25: 0, 26: 6, 27: 2, 28: 1, 29: 0, 30: 2, 31: 0, 32: 32}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 350, 3: 0, 4: 235, 5: 0, 6: 58, 7: 0, 8: 450, 9: 0, 10: 12, 11: 0, 12: 16, 13: 8, 14: 6, 15: 0, 16: 77, 17: 0, 18: 3, 19: 3, 20: 5, 21: 1, 22: 2, 23: 0, 24: 8, 25: 0, 26: 0, 27: 1, 28: 2, 29: 0, 30: 1, 31: 0, 32: 29}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 676, 3: 0, 4: 404, 5: 0, 6: 13, 7: 0, 8: 206, 9: 0, 10: 14, 11: 0, 12: 41, 13: 2, 14: 8, 15: 1, 16: 48, 17: 0, 18: 4, 19: 1, 20: 3, 21: 1, 22: 1, 23: 0, 24: 3, 25: 0, 26: 0, 27: 2, 28: 3, 29: 0, 30: 0, 31: 0, 32: 22}</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 819, 3: 0, 4: 207, 5: 0, 6: 46, 7: 0, 8: 247, 9: 0, 10: 50, 11: 0, 12: 14, 13: 4, 14: 6, 15: 0, 16: 30, 17: 0, 18: 4, 19: 0, 20: 3, 21: 0, 22: 0, 23: 0, 24: 3, 25: 0, 26: 1, 27: 0, 28: 2, 29: 0, 30: 1, 31: 0, 32: 6}</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 3, 2: 462, 3: 0, 4: 392, 5: 0, 6: 71, 7: 0, 8: 296, 9: 0, 10: 23, 11: 0, 12: 31, 13: 10, 14: 8, 15: 0, 16: 85, 17: 0, 18: 5, 19: 3, 20: 3, 21: 1, 22: 3, 23: 0, 24: 10, 25: 0, 26: 5, 27: 0, 28: 2, 29: 0, 30: 0, 31: 0, 32: 20}</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 423, 3: 0, 4: 423, 5: 0, 6: 36, 7: 0, 8: 294, 9: 0, 10: 27, 11: 0, 12: 5, 13: 2, 14: 3, 15: 0, 16: 109, 17: 0, 18: 1, 19: 5, 20: 0, 21: 0, 22: 0, 23: 0, 24: 1, 25: 0, 26: 1, 27: 0, 28: 0, 29: 1, 30: 0, 31: 0, 32: 6}</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 758, 3: 0, 4: 273, 5: 0, 6: 17, 7: 0, 8: 305, 9: 0, 10: 14, 11: 0, 12: 14, 13: 2, 14: 13, 15: 0, 16: 31, 17: 0, 18: 9, 19: 6, 20: 2, 21: 2, 22: 1, 23: 0, 24: 2, 25: 0, 26: 1, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 3}</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 1248, 3: 0, 4: 584, 5: 0, 6: 157, 7: 0, 8: 481, 9: 0, 10: 47, 11: 0, 12: 37, 13: 5, 14: 23, 15: 0, 16: 133, 17: 0, 18: 7, 19: 2, 20: 15, 21: 1, 22: 3, 23: 0, 24: 13, 25: 0, 26: 6, 27: 1, 28: 2, 29: 0, 30: 1, 31: 0, 32: 39}</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 847, 3: 0, 4: 543, 5: 0, 6: 199, 7: 0, 8: 664, 9: 0, 10: 84, 11: 0, 12: 123, 13: 6, 14: 12, 15: 0, 16: 136, 17: 0, 18: 13, 19: 4, 20: 15, 21: 9, 22: 6, 23: 0, 24: 12, 25: 0, 26: 6, 27: 7, 28: 3, 29: 4, 30: 1, 31: 0, 32: 29}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 1, 2: 509, 3: 0, 4: 890, 5: 0, 6: 67, 7: 0, 8: 683, 9: 0, 10: 41, 11: 0, 12: 244, 13: 8, 14: 22, 15: 0, 16: 105, 17: 0, 18: 18, 19: 10, 20: 19, 21: 18, 22: 13, 23: 0, 24: 33, 25: 0, 26: 6, 27: 3, 28: 6, 29: 1, 30: 5, 31: 0, 32: 89}</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 487, 3: 0, 4: 316, 5: 0, 6: 24, 7: 0, 8: 363, 9: 0, 10: 12, 11: 0, 12: 3, 13: 0, 14: 2, 15: 0, 16: 111, 17: 0, 18: 0, 19: 1, 20: 2, 21: 3, 22: 3, 23: 0, 24: 14, 25: 0, 26: 0, 27: 3, 28: 0, 29: 0, 30: 1, 31: 0, 32: 2}</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 807, 3: 0, 4: 221, 5: 0, 6: 38, 7: 0, 8: 290, 9: 0, 10: 10, 11: 0, 12: 4, 13: 2, 14: 2, 15: 0, 16: 53, 17: 0, 18: 0, 19: 0, 20: 1, 21: 0, 22: 0, 23: 0, 24: 1, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 11}</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 0, 2: 333, 3: 0, 4: 471, 5: 0, 6: 51, 7: 0, 8: 301, 9: 0, 10: 7, 11: 0, 12: 25, 13: 7, 14: 6, 15: 0, 16: 175, 17: 0, 18: 5, 19: 0, 20: 3, 21: 2, 22: 1, 23: 0, 24: 7, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 1, 31: 0, 32: 50}</t>
         </is>
       </c>
     </row>
@@ -1435,6 +2470,138 @@
  [  0   6   0 ...   0   0   0]]</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 115   0 ...   0   0   8]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   5   0 ...   0   0   1]]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 363   0 ...   0   0   2]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   3   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 553   0 ...   0   0   1]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   1   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   1   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  1 183   0 ...   0   0   9]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   4   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 202   0 ...   0   0   3]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   3   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 416   0 ...   0   0   3]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   1   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 564   0 ...   1   0  15]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0  16   0 ...   0   0   2]]</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 389   0 ...   0   0   3]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   1   0 ...   1   0   1]]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 241   0 ...   0   0   6]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   1]
+ [  0   0   0 ...   0   0   0]
+ [  0  13   0 ...   0   0   5]]</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 231   0 ...   0   0   1]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   1   0 ...   0   0   0]]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 519   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   0   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   5   0 ...   0   0   1]]</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 151   0 ...   1   0   0]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   1   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   3   0 ...   0   0   9]]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0_data/8_predictions/model_evaluation.xlsx
+++ b/0_data/8_predictions/model_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,857 +543,927 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>pitch_count_seq</t>
+          <t>mean_pitch</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>17.4</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2</v>
+        <v>13.85</v>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>16.47</v>
       </c>
       <c r="F2" t="n">
-        <v>10.8</v>
+        <v>15.74</v>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
+        <v>15.78</v>
       </c>
       <c r="H2" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="I2" t="n">
-        <v>13.2</v>
+        <v>14.24</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>16.92</v>
       </c>
       <c r="K2" t="n">
-        <v>17.8</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>11.8</v>
+        <v>14.5</v>
       </c>
       <c r="M2" t="n">
-        <v>12.6</v>
+        <v>16.15</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>14.28</v>
       </c>
       <c r="O2" t="n">
-        <v>11.4</v>
+        <v>14.04</v>
       </c>
       <c r="P2" t="n">
-        <v>10.4</v>
+        <v>17.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>22.4</v>
+        <v>15.53</v>
       </c>
       <c r="R2" t="n">
-        <v>13.2</v>
+        <v>16.04</v>
       </c>
       <c r="S2" t="n">
-        <v>14.6</v>
+        <v>13.65</v>
       </c>
       <c r="T2" t="n">
-        <v>10.6</v>
+        <v>16.18</v>
       </c>
       <c r="U2" t="n">
-        <v>10.4</v>
+        <v>15.13</v>
       </c>
       <c r="V2" t="n">
-        <v>9.199999999999999</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pitch_count_bar</t>
+          <t>pitch_count_seq</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.19</v>
+        <v>6.8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.07</v>
+        <v>13.2</v>
       </c>
       <c r="E3" t="n">
-        <v>3.09</v>
+        <v>11.8</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>10.8</v>
       </c>
       <c r="G3" t="n">
-        <v>3.52</v>
+        <v>14.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>14.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>13.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.61</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>3.97</v>
+        <v>17.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.46</v>
+        <v>11.8</v>
       </c>
       <c r="M3" t="n">
-        <v>3.81</v>
+        <v>12.6</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
-        <v>3.61</v>
+        <v>11.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.79</v>
+        <v>10.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.31</v>
+        <v>22.4</v>
       </c>
       <c r="R3" t="n">
-        <v>3.16</v>
+        <v>13.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.79</v>
+        <v>14.6</v>
       </c>
       <c r="T3" t="n">
-        <v>3.88</v>
+        <v>10.6</v>
       </c>
       <c r="U3" t="n">
-        <v>4.01</v>
+        <v>10.4</v>
       </c>
       <c r="V3" t="n">
-        <v>3.06</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>pitch_range_seq</t>
+          <t>pitch_count_bar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.6</v>
+        <v>3.4</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>3.19</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>4.07</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8</v>
+        <v>3.09</v>
       </c>
       <c r="F4" t="n">
-        <v>19.4</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>20.4</v>
+        <v>3.52</v>
       </c>
       <c r="H4" t="n">
-        <v>22.4</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>2.78</v>
       </c>
       <c r="J4" t="n">
-        <v>25.4</v>
+        <v>3.61</v>
       </c>
       <c r="K4" t="n">
-        <v>27.8</v>
+        <v>3.97</v>
       </c>
       <c r="L4" t="n">
-        <v>20.4</v>
+        <v>3.46</v>
       </c>
       <c r="M4" t="n">
-        <v>20.2</v>
+        <v>3.81</v>
       </c>
       <c r="N4" t="n">
-        <v>29.4</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>3.61</v>
       </c>
       <c r="P4" t="n">
-        <v>18.8</v>
+        <v>3.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.4</v>
+        <v>4.31</v>
       </c>
       <c r="R4" t="n">
-        <v>24.4</v>
+        <v>3.16</v>
       </c>
       <c r="S4" t="n">
-        <v>21.4</v>
+        <v>2.79</v>
       </c>
       <c r="T4" t="n">
-        <v>17.4</v>
+        <v>3.88</v>
       </c>
       <c r="U4" t="n">
-        <v>16.4</v>
+        <v>4.01</v>
       </c>
       <c r="V4" t="n">
-        <v>17.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pitch_range_bar</t>
+          <t>pitch_range_seq</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.52</v>
+        <v>14.6</v>
       </c>
       <c r="C5" t="n">
-        <v>5.69</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>10.25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>5.37</v>
+        <v>20.8</v>
       </c>
       <c r="F5" t="n">
-        <v>6.5</v>
+        <v>19.4</v>
       </c>
       <c r="G5" t="n">
-        <v>7.31</v>
+        <v>20.4</v>
       </c>
       <c r="H5" t="n">
-        <v>6.25</v>
+        <v>22.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.07</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>25.4</v>
       </c>
       <c r="K5" t="n">
-        <v>10.61</v>
+        <v>27.8</v>
       </c>
       <c r="L5" t="n">
-        <v>6.64</v>
+        <v>20.4</v>
       </c>
       <c r="M5" t="n">
-        <v>6.79</v>
+        <v>20.2</v>
       </c>
       <c r="N5" t="n">
-        <v>8.67</v>
+        <v>29.4</v>
       </c>
       <c r="O5" t="n">
-        <v>6.67</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
-        <v>6.99</v>
+        <v>18.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.35</v>
+        <v>29.4</v>
       </c>
       <c r="R5" t="n">
-        <v>5.66</v>
+        <v>24.4</v>
       </c>
       <c r="S5" t="n">
-        <v>5.01</v>
+        <v>21.4</v>
       </c>
       <c r="T5" t="n">
-        <v>6.98</v>
+        <v>17.4</v>
       </c>
       <c r="U5" t="n">
-        <v>6.71</v>
+        <v>16.4</v>
       </c>
       <c r="V5" t="n">
-        <v>5.43</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pitch_intervals_avg</t>
+          <t>pitch_range_bar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.52</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06</v>
+        <v>5.69</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>10.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>5.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>6.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>7.31</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02</v>
+        <v>10.61</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02</v>
+        <v>6.64</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02</v>
+        <v>6.79</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03</v>
+        <v>8.67</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>6.67</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>6.99</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01</v>
+        <v>5.66</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>5.01</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03</v>
+        <v>6.98</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01</v>
+        <v>6.71</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>pitch_intervals_avg_abs</t>
+          <t>pitch_intervals_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2.19</v>
+        <v>0.06</v>
       </c>
       <c r="D7" t="n">
-        <v>5.48</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>4.54</v>
+        <v>0.02</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>5.95</v>
+        <v>0.02</v>
       </c>
       <c r="L7" t="n">
-        <v>2.31</v>
+        <v>0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>1.96</v>
+        <v>0.02</v>
       </c>
       <c r="N7" t="n">
-        <v>5.42</v>
+        <v>0.03</v>
       </c>
       <c r="O7" t="n">
-        <v>2.38</v>
+        <v>0.03</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.46</v>
+        <v>0.01</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>0.03</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>0.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>pitch_intervals_hist</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[ 80  35 126  32  10  23   0  12   0   6   1   0   1   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[ 93  16 134  53  15  20   0  11   2   4   1   0   3   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[49  8 54 31 27 57  0 46 10 27 18  4 16  1  7  4  0  2  0  6  0  1  0  0
-  1  0  0  0  0  0  0  0  0  0  0  0]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[358  57 456 205  61 116   0  35   8  10   9   0   3   0   1   0   2   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[282  20 543 258  23  97   0  55   9  11   7   2  16   0   1   0   0   1
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[197  37 255 163 105 226  14 209  44  77  43  13  39   3  11   7   2   1
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[603 157 785 375 177 309   1 180  22  57  32   8  26   0   1   2   3   1
-   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[634  49 886 435 101 240   2 171  20  39  25   4  35   2   5   2   0   1
-   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[624 214 803 353 183 285  13 133  24  44  25   5  28   5   9   5   1   1
-   0   1   1   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[151  32 179 122  85 182   7 125  37  76  59  16  71   6  37  25   7  16
-   1  13   3   7   1   2   2   0   1   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[420  53 524 194  52  86   0  55  13  26   6   0  21   0   1   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[444 118 466 240  43  59   1  39   3  11   6   0   7   0   0   0   1   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[143  57 213 158  99 225  12 168  51  70  78  13  61   6  29  11   8  10
-   0  12   1   1   0   0   3   0   0   0   0   0   0   1   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[322  83 500 198  29  74   0  75  18  21   3   3   6   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>[408  69 531 219  51  78   0  65   5  13   5   0   6   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[290  92 432 271 201 401  30 327  92 151 134  36 147  15  72  30  22  28
-   1  16   3   6   3   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>[793 121 889 328  90 259   1 126  15  34  25   0  27   2   7   0   0   0
-   1   1   0   0   0   0   1   0   0   1   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[883 110 869 287 116 248   1 141  27  52  24   4  25   1   2   0   0   0
-   0   0   1   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>[324  94 491 206  56  88   0  58   7   9   2   0   7   0   0   0   0   0
-   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[376 187 487 147  67  83   1  64  12   3   6   0   3   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>[278   6 634 332  46  56   0  67   3   7   3   0   6   0   3   1   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
+          <t>pitch_intervals_avg_abs</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>pitch_class_hist_numbers</t>
+          <t>pitch_intervals_hist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[66  0 59  0 52 19  0 66  0 44  0 25]</t>
+          <t>[ 80  35 126  32  10  23   0  12   0   6   1   0   1   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[55  0 67  0 91 13  0 65  0 62  0  4]</t>
+          <t>[ 93  16 134  53  15  20   0  11   2   4   1   0   3   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[67  0 66  0 85 10  0 69  0 55  0 22]</t>
+          <t>[49  8 54 31 27 57  0 46 10 27 18  4 16  1  7  4  0  2  0  6  0  1  0  0
+  1  0  0  0  0  0  0  0  0  0  0  0]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[256   3 247   0 214   4   2 206   0 287   0 107]</t>
+          <t>[358  57 456 205  61 116   0  35   8  10   9   0   3   0   1   0   2   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[183   0 260   0 264   1   0 256   0 320   0  46]</t>
+          <t>[282  20 543 258  23  97   0  55   9  11   7   2  16   0   1   0   0   1
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[266   2 270   2 279  55   4 255   2 238   2  76]</t>
+          <t>[197  37 255 163 105 226  14 209  44  77  43  13  39   3  11   7   2   1
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[502   5 533   1 490  47  50 394   0 476   0 247]</t>
+          <t>[603 157 785 375 177 309   1 180  22  57  32   8  26   0   1   2   3   1
+   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[362 103 520  59 458  61   8 393  81 447  88  77]</t>
+          <t>[634  49 886 435 101 240   2 171  20  39  25   4  35   2   5   2   0   1
+   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[515  15 573  20 568 114  11 362  10 403   8 164]</t>
+          <t>[624 214 803 353 183 285  13 133  24  44  25   5  28   5   9   5   1   1
+   0   1   1   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[242   0 233   0 281  40   2 180   2 208   1  79]</t>
+          <t>[151  32 179 122  85 182   7 125  37  76  59  16  71   6  37  25   7  16
+   1  13   3   7   1   2   2   0   1   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[330   0 264   1 242  29   0 324   0 236   0  30]</t>
+          <t>[420  53 524 194  52  86   0  55  13  26   6   0  21   0   1   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[261  15 187  13 211  89   1 304  17 265  15  65]</t>
+          <t>[444 118 466 240  43  59   1  39   3  11   6   0   7   0   0   0   1   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[260   1 244   2 283  55   4 240   2 243   1 100]</t>
+          <t>[143  57 213 158  99 225  12 168  51  70  78  13  61   6  29  11   8  10
+   0  12   1   1   0   0   3   0   0   0   0   0   0   1   0   0   0   0]</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[236   0 279   0 262  70   0 219   1 220   1  49]</t>
+          <t>[322  83 500 198  29  74   0  75  18  21   3   3   6   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[247   0 312   0 340  29   0 264   1 210   0  52]</t>
+          <t>[408  69 531 219  51  78   0  65   5  13   5   0   6   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[522   5 481   7 581 113  16 471   9 415   4 182]</t>
+          <t>[290  92 432 271 201 401  30 327  92 151 134  36 147  15  72  30  22  28
+   1  16   3   6   3   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[436   1 467   4 490  17   0 446   1 731   1 132]</t>
+          <t>[793 121 889 328  90 259   1 126  15  34  25   0  27   2   7   0   0   0
+   1   1   0   0   0   0   1   0   0   1   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[484  14 507  26 707 135  22 342  85 371  37  67]</t>
+          <t>[883 110 869 287 116 248   1 141  27  52  24   4  25   1   2   0   0   0
+   0   0   1   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[235   0 240   0 313  31   0 172   1 275   0  81]</t>
+          <t>[324  94 491 206  56  88   0  58   7   9   2   0   7   0   0   0   0   0
+   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[250   0 234   0 272  55   2 192   0 257   0 179]</t>
+          <t>[376 187 487 147  67  83   1  64  12   3   6   0   3   0   0   0   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[229   0 314   0 427   0   0 186   0 273   0  18]</t>
+          <t>[278   6 634 332  46  56   0  67   3   7   3   0   6   0   3   1   0   0
+   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>pitch_class_hist_pitches</t>
+          <t>pitch_class_hist_numbers</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'C': 66, 'C#': 0, 'D': 59, 'D#': 0, 'E': 52, 'F': 19, 'F#': 0, 'G': 66, 'G#': 0, 'A': 44, 'A#': 0, 'B': 25}</t>
+          <t>[66  0 59  0 52 19  0 66  0 44  0 25]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'C': 55, 'C#': 0, 'D': 67, 'D#': 0, 'E': 91, 'F': 13, 'F#': 0, 'G': 65, 'G#': 0, 'A': 62, 'A#': 0, 'B': 4}</t>
+          <t>[55  0 67  0 91 13  0 65  0 62  0  4]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'C': 67, 'C#': 0, 'D': 66, 'D#': 0, 'E': 85, 'F': 10, 'F#': 0, 'G': 69, 'G#': 0, 'A': 55, 'A#': 0, 'B': 22}</t>
+          <t>[67  0 66  0 85 10  0 69  0 55  0 22]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 256, 'C#': 3, 'D': 247, 'D#': 0, 'E': 214, 'F': 4, 'F#': 2, 'G': 206, 'G#': 0, 'A': 287, 'A#': 0, 'B': 107}</t>
+          <t>[256   3 247   0 214   4   2 206   0 287   0 107]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'C': 183, 'C#': 0, 'D': 260, 'D#': 0, 'E': 264, 'F': 1, 'F#': 0, 'G': 256, 'G#': 0, 'A': 320, 'A#': 0, 'B': 46}</t>
+          <t>[183   0 260   0 264   1   0 256   0 320   0  46]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'C': 266, 'C#': 2, 'D': 270, 'D#': 2, 'E': 279, 'F': 55, 'F#': 4, 'G': 255, 'G#': 2, 'A': 238, 'A#': 2, 'B': 76}</t>
+          <t>[266   2 270   2 279  55   4 255   2 238   2  76]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'C': 502, 'C#': 5, 'D': 533, 'D#': 1, 'E': 490, 'F': 47, 'F#': 50, 'G': 394, 'G#': 0, 'A': 476, 'A#': 0, 'B': 247}</t>
+          <t>[502   5 533   1 490  47  50 394   0 476   0 247]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'C': 362, 'C#': 103, 'D': 520, 'D#': 59, 'E': 458, 'F': 61, 'F#': 8, 'G': 393, 'G#': 81, 'A': 447, 'A#': 88, 'B': 77}</t>
+          <t>[362 103 520  59 458  61   8 393  81 447  88  77]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'C': 515, 'C#': 15, 'D': 573, 'D#': 20, 'E': 568, 'F': 114, 'F#': 11, 'G': 362, 'G#': 10, 'A': 403, 'A#': 8, 'B': 164}</t>
+          <t>[515  15 573  20 568 114  11 362  10 403   8 164]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'C': 242, 'C#': 0, 'D': 233, 'D#': 0, 'E': 281, 'F': 40, 'F#': 2, 'G': 180, 'G#': 2, 'A': 208, 'A#': 1, 'B': 79}</t>
+          <t>[242   0 233   0 281  40   2 180   2 208   1  79]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'C': 330, 'C#': 0, 'D': 264, 'D#': 1, 'E': 242, 'F': 29, 'F#': 0, 'G': 324, 'G#': 0, 'A': 236, 'A#': 0, 'B': 30}</t>
+          <t>[330   0 264   1 242  29   0 324   0 236   0  30]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'C': 261, 'C#': 15, 'D': 187, 'D#': 13, 'E': 211, 'F': 89, 'F#': 1, 'G': 304, 'G#': 17, 'A': 265, 'A#': 15, 'B': 65}</t>
+          <t>[261  15 187  13 211  89   1 304  17 265  15  65]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'C': 260, 'C#': 1, 'D': 244, 'D#': 2, 'E': 283, 'F': 55, 'F#': 4, 'G': 240, 'G#': 2, 'A': 243, 'A#': 1, 'B': 100}</t>
+          <t>[260   1 244   2 283  55   4 240   2 243   1 100]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'C': 236, 'C#': 0, 'D': 279, 'D#': 0, 'E': 262, 'F': 70, 'F#': 0, 'G': 219, 'G#': 1, 'A': 220, 'A#': 1, 'B': 49}</t>
+          <t>[236   0 279   0 262  70   0 219   1 220   1  49]</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'C': 247, 'C#': 0, 'D': 312, 'D#': 0, 'E': 340, 'F': 29, 'F#': 0, 'G': 264, 'G#': 1, 'A': 210, 'A#': 0, 'B': 52}</t>
+          <t>[247   0 312   0 340  29   0 264   1 210   0  52]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'C': 522, 'C#': 5, 'D': 481, 'D#': 7, 'E': 581, 'F': 113, 'F#': 16, 'G': 471, 'G#': 9, 'A': 415, 'A#': 4, 'B': 182}</t>
+          <t>[522   5 481   7 581 113  16 471   9 415   4 182]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'C': 436, 'C#': 1, 'D': 467, 'D#': 4, 'E': 490, 'F': 17, 'F#': 0, 'G': 446, 'G#': 1, 'A': 731, 'A#': 1, 'B': 132}</t>
+          <t>[436   1 467   4 490  17   0 446   1 731   1 132]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'C': 484, 'C#': 14, 'D': 507, 'D#': 26, 'E': 707, 'F': 135, 'F#': 22, 'G': 342, 'G#': 85, 'A': 371, 'A#': 37, 'B': 67}</t>
+          <t>[484  14 507  26 707 135  22 342  85 371  37  67]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>{'C': 235, 'C#': 0, 'D': 240, 'D#': 0, 'E': 313, 'F': 31, 'F#': 0, 'G': 172, 'G#': 1, 'A': 275, 'A#': 0, 'B': 81}</t>
+          <t>[235   0 240   0 313  31   0 172   1 275   0  81]</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>{'C': 250, 'C#': 0, 'D': 234, 'D#': 0, 'E': 272, 'F': 55, 'F#': 2, 'G': 192, 'G#': 0, 'A': 257, 'A#': 0, 'B': 179}</t>
+          <t>[250   0 234   0 272  55   2 192   0 257   0 179]</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>{'C': 229, 'C#': 0, 'D': 314, 'D#': 0, 'E': 427, 'F': 0, 'F#': 0, 'G': 186, 'G#': 0, 'A': 273, 'A#': 0, 'B': 18}</t>
+          <t>[229   0 314   0 427   0   0 186   0 273   0  18]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>crooked_pitch_count</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
+          <t>pitch_class_hist_pitches</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'C': 66, 'C#': 0, 'D': 59, 'D#': 0, 'E': 52, 'F': 19, 'F#': 0, 'G': 66, 'G#': 0, 'A': 44, 'A#': 0, 'B': 25}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'C': 55, 'C#': 0, 'D': 67, 'D#': 0, 'E': 91, 'F': 13, 'F#': 0, 'G': 65, 'G#': 0, 'A': 62, 'A#': 0, 'B': 4}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'C': 67, 'C#': 0, 'D': 66, 'D#': 0, 'E': 85, 'F': 10, 'F#': 0, 'G': 69, 'G#': 0, 'A': 55, 'A#': 0, 'B': 22}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'C': 256, 'C#': 3, 'D': 247, 'D#': 0, 'E': 214, 'F': 4, 'F#': 2, 'G': 206, 'G#': 0, 'A': 287, 'A#': 0, 'B': 107}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'C': 183, 'C#': 0, 'D': 260, 'D#': 0, 'E': 264, 'F': 1, 'F#': 0, 'G': 256, 'G#': 0, 'A': 320, 'A#': 0, 'B': 46}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'C': 266, 'C#': 2, 'D': 270, 'D#': 2, 'E': 279, 'F': 55, 'F#': 4, 'G': 255, 'G#': 2, 'A': 238, 'A#': 2, 'B': 76}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{'C': 502, 'C#': 5, 'D': 533, 'D#': 1, 'E': 490, 'F': 47, 'F#': 50, 'G': 394, 'G#': 0, 'A': 476, 'A#': 0, 'B': 247}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'C': 362, 'C#': 103, 'D': 520, 'D#': 59, 'E': 458, 'F': 61, 'F#': 8, 'G': 393, 'G#': 81, 'A': 447, 'A#': 88, 'B': 77}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{'C': 515, 'C#': 15, 'D': 573, 'D#': 20, 'E': 568, 'F': 114, 'F#': 11, 'G': 362, 'G#': 10, 'A': 403, 'A#': 8, 'B': 164}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{'C': 242, 'C#': 0, 'D': 233, 'D#': 0, 'E': 281, 'F': 40, 'F#': 2, 'G': 180, 'G#': 2, 'A': 208, 'A#': 1, 'B': 79}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{'C': 330, 'C#': 0, 'D': 264, 'D#': 1, 'E': 242, 'F': 29, 'F#': 0, 'G': 324, 'G#': 0, 'A': 236, 'A#': 0, 'B': 30}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{'C': 261, 'C#': 15, 'D': 187, 'D#': 13, 'E': 211, 'F': 89, 'F#': 1, 'G': 304, 'G#': 17, 'A': 265, 'A#': 15, 'B': 65}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{'C': 260, 'C#': 1, 'D': 244, 'D#': 2, 'E': 283, 'F': 55, 'F#': 4, 'G': 240, 'G#': 2, 'A': 243, 'A#': 1, 'B': 100}</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{'C': 236, 'C#': 0, 'D': 279, 'D#': 0, 'E': 262, 'F': 70, 'F#': 0, 'G': 219, 'G#': 1, 'A': 220, 'A#': 1, 'B': 49}</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{'C': 247, 'C#': 0, 'D': 312, 'D#': 0, 'E': 340, 'F': 29, 'F#': 0, 'G': 264, 'G#': 1, 'A': 210, 'A#': 0, 'B': 52}</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{'C': 522, 'C#': 5, 'D': 481, 'D#': 7, 'E': 581, 'F': 113, 'F#': 16, 'G': 471, 'G#': 9, 'A': 415, 'A#': 4, 'B': 182}</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'C': 436, 'C#': 1, 'D': 467, 'D#': 4, 'E': 490, 'F': 17, 'F#': 0, 'G': 446, 'G#': 1, 'A': 731, 'A#': 1, 'B': 132}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>{'C': 484, 'C#': 14, 'D': 507, 'D#': 26, 'E': 707, 'F': 135, 'F#': 22, 'G': 342, 'G#': 85, 'A': 371, 'A#': 37, 'B': 67}</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>{'C': 235, 'C#': 0, 'D': 240, 'D#': 0, 'E': 313, 'F': 31, 'F#': 0, 'G': 172, 'G#': 1, 'A': 275, 'A#': 0, 'B': 81}</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>{'C': 250, 'C#': 0, 'D': 234, 'D#': 0, 'E': 272, 'F': 55, 'F#': 2, 'G': 192, 'G#': 0, 'A': 257, 'A#': 0, 'B': 179}</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>{'C': 229, 'C#': 0, 'D': 314, 'D#': 0, 'E': 427, 'F': 0, 'F#': 0, 'G': 186, 'G#': 0, 'A': 273, 'A#': 0, 'B': 18}</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>crooked_pitch_count</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>pitch_class_transition_matrix</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>[[22  0 15  0  3  0  0  9  0  7  0 10]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1409,7 +1479,7 @@
  [ 9  0  0  0  0  0  0  3  0  9  0  3]]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>[[10  0 18  0  8  1  0  3  0 11  0  3]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1425,7 +1495,7 @@
  [ 0  0  0  0  2  0  0  1  0  1  0  0]]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>[[14  0  9  0 18  2  0  9  0 10  0  4]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1441,7 +1511,7 @@
  [ 6  0  1  0  7  0  0  4  0  3  0  1]]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[[68  0 71  0 29  0  0 12  0 45  0 31]
  [ 0  1  0  0  1  0  0  0  0  0  0  0]
@@ -1457,7 +1527,7 @@
  [22  0  6  0  5  0  0 12  0 37  0 24]]</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>[[ 33   0  52   0  16   0   0   8   0  60   0  13]
  [  0   0   0   0   0   0   0   0   0   0   0   0]
@@ -1473,7 +1543,7 @@
  [  8   0   1   0   1   0   0   4   0  25   0   7]]</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[[43  1 52  0 49 13  0 49  0 47  0 10]
  [ 0  0  0  0  1  0  0  0  0  0  0  1]
@@ -1489,7 +1559,7 @@
  [15  0 17  0 11  5  0 16  0  8  0  4]]</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>[[123   0 117   0  71   4   0  52   0  72   0  63]
  [  0   1   2   0   0   0   1   0   0   0   0   1]
@@ -1505,7 +1575,7 @@
  [ 54   0  21   0  25   0   8  32   0  58   0  48]]</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[[ 58   5 121   5  27   6   0  37   3  79   5  15]
  [ 10  35   3  19   0   8   2   1   8   1  15   0]
@@ -1521,7 +1591,7 @@
  [  5   0   5   0   4   0   0  11   0  34   0  18]]</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[[133   2 126   3  69  11   2  45   1  74   1  48]
  [  3   2   4   1   2   0   1   0   0   1   0   1]
@@ -1537,7 +1607,7 @@
  [ 44   0  18   0  13   3   1  22   0  36   0  25]]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[[50  0 49  0 49  7  0 30  0 39  0 17]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1553,7 +1623,7 @@
  [17  0 13  0 16  2  0 11  0 15  0  5]]</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[[105   0  96   1  25   2   0  35   0  55   0  11]
  [  0   0   0   0   0   0   0   0   0   0   0   0]
@@ -1569,7 +1639,7 @@
  [ 13   0   1   0   0   0   0   3   0   8   0   5]]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[[ 90   1  45   0  15   3   0  19   0  67   0  21]
  [  0   4   0   5   0   2   0   0   1   0   2   1]
@@ -1585,7 +1655,7 @@
  [ 28   0   3   0   0   0   0   6   1  13   3  11]]</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>[[44  0 44  1 51  3  1 42  0 42  0 30]
  [ 0  0  0  0  1  0  0  0  0  0  0  0]
@@ -1601,7 +1671,7 @@
  [17  0 15  0 23  4  0 16  0 17  0  8]]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>[[ 67   0  55   0  18  15   0  17   1  45   0  17]
  [  0   0   0   0   0   0   0   0   0   0   0   0]
@@ -1617,7 +1687,7 @@
  [ 14   0   2   0   5   0   0   6   0  16   0   6]]</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[[ 67   0  88   0  19   0   0  14   0  40   0  19]
  [  0   0   0   0   0   0   0   0   0   0   0   0]
@@ -1633,7 +1703,7 @@
  [ 16   0   2   0   1   0   0   7   0  24   0   2]]</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>[[ 94   1  91   4 107  18   3  85   1  74   0  43]
  [  0   0   0   0   1   0   1   1   0   2   0   0]
@@ -1649,7 +1719,7 @@
  [ 31   0  25   1  39  10   1  32   2  27   0  14]]</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>[[112   0 117   0  35   5   0  32   0  76   1  57]
  [  0   0   0   0   0   0   0   0   0   1   0   0]
@@ -1665,7 +1735,7 @@
  [ 46   0   5   0   2   0   0  14   0  45   0  20]]</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[138   2 129   3  40  10   0  52   3  75   3  28]
  [  2   1   2   0   0   3   0   0   5   0   1   0]
@@ -1681,7 +1751,7 @@
  [ 11   0   3   0   2   0   1   4   0  32   0  14]]</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>[[47  0 68  0 26  0  0 11  0 44  0 38]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1697,7 +1767,7 @@
  [21  0  0  0  3  0  0  8  0 39  0  9]]</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>[[40  0 72  0 18  2  0 24  0 32  0 61]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -1713,7 +1783,7 @@
  [69  0  4  0  6  1  0 20  0 25  0 53]]</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>[[ 23   0  77   0  27   0   0   3   0  95   0   4]
  [  0   0   0   0   0   0   0   0   0   0   0   0]
@@ -1730,359 +1800,429 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>note_count_seq</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>266</v>
-      </c>
-      <c r="G13" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>549</v>
-      </c>
-      <c r="I13" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>552.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>291.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>287</v>
-      </c>
-      <c r="O13" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>291</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>561.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>545.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>559.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>289.4</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>note_count_bar</t>
+          <t>note_count_seq</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.26</v>
+        <v>66.2</v>
       </c>
       <c r="C14" t="n">
-        <v>6.61</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>6.26</v>
+        <v>74.8</v>
       </c>
       <c r="E14" t="n">
-        <v>5.23</v>
+        <v>265.2</v>
       </c>
       <c r="F14" t="n">
-        <v>6.52</v>
+        <v>266</v>
       </c>
       <c r="G14" t="n">
-        <v>5.37</v>
+        <v>290.2</v>
       </c>
       <c r="H14" t="n">
-        <v>6.1</v>
+        <v>549</v>
       </c>
       <c r="I14" t="n">
-        <v>4.48</v>
+        <v>531.4</v>
       </c>
       <c r="J14" t="n">
-        <v>6.14</v>
+        <v>552.6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>253.6</v>
       </c>
       <c r="L14" t="n">
-        <v>6.61</v>
+        <v>291.2</v>
       </c>
       <c r="M14" t="n">
-        <v>7.85</v>
+        <v>288.6</v>
       </c>
       <c r="N14" t="n">
-        <v>5.4</v>
+        <v>287</v>
       </c>
       <c r="O14" t="n">
-        <v>6.5</v>
+        <v>267.4</v>
       </c>
       <c r="P14" t="n">
-        <v>7.76</v>
+        <v>291</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.61</v>
+        <v>561.2</v>
       </c>
       <c r="R14" t="n">
-        <v>5.7</v>
+        <v>545.2</v>
       </c>
       <c r="S14" t="n">
-        <v>5.15</v>
+        <v>559.4</v>
       </c>
       <c r="T14" t="n">
-        <v>7.61</v>
+        <v>269.6</v>
       </c>
       <c r="U14" t="n">
-        <v>8.51</v>
+        <v>288.2</v>
       </c>
       <c r="V14" t="n">
-        <v>5.27</v>
+        <v>289.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>onset_intervals_avg</t>
+          <t>note_count_bar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.55</v>
+        <v>6.26</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>6.61</v>
       </c>
       <c r="D15" t="n">
-        <v>2.54</v>
+        <v>6.26</v>
       </c>
       <c r="E15" t="n">
-        <v>3.22</v>
+        <v>5.23</v>
       </c>
       <c r="F15" t="n">
-        <v>2.91</v>
+        <v>6.52</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5.37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.71</v>
+        <v>6.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.88</v>
+        <v>4.48</v>
       </c>
       <c r="J15" t="n">
-        <v>2.67</v>
+        <v>6.14</v>
       </c>
       <c r="K15" t="n">
-        <v>2.73</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
-        <v>2.51</v>
+        <v>6.61</v>
       </c>
       <c r="M15" t="n">
-        <v>2.27</v>
+        <v>7.85</v>
       </c>
       <c r="N15" t="n">
-        <v>3.09</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>2.47</v>
+        <v>6.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>7.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>6.61</v>
       </c>
       <c r="R15" t="n">
-        <v>2.98</v>
+        <v>5.7</v>
       </c>
       <c r="S15" t="n">
-        <v>3.37</v>
+        <v>5.15</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>7.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>8.51</v>
       </c>
       <c r="V15" t="n">
-        <v>3.42</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>onset_intervals_avg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>onset_intervals_hist</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>[ 32  82 145  10  25   1  10   1   7   0   3   1   5   1   2   0   1   1
    0   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>[ 23 118 153  18   9   4   7   0   6   0   4   0   2   1   2   1   3   0
    0   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>[38 18 45 27 54 19 39 10 38 10 19  7 16  2  8  2  9  1  3  2  1  0  2  0
   0  0  0  0  0  0  1  0]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>[ 47 295 583 100  97  12  35   1  38   7  17   3  31  13   5   5  24   3
    2   1   2   0   0   0   1   0   0   0   1   0   0   0]</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>[ 10 499 357 110 228   3  21   1  27   3  23   0  11   1   1   1  20   2
    4   0   4   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[118  84 200  67 214  55 161  41 134  46  95  22  76  17  36  14  35   5
   11   2   6   1   3   0   2   0   3   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>[ 135  444 1073  168  265   46  115   50  119   28   87   31   61   15
    32   11   33    5    4    3    3    2    1    3    2    1    1    0
     1    0    0    0]</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[ 63 541 579 372 426  79  52  63  94  41  27  49  77  32  19  22  54  17
    3   6  10   3   0   3   4   4   0   1   3   0   0   0]</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[159 781 521 410 271  98  84  60  98  52  41  45  47  20  11  13  29   6
    4   3   2   0   1   1   0   1   0   1   1   1   0   0]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[ 75 100 136  97 156  81  94  72 113  63  68  38  54  34  21  19  11  17
    4   1   3   0   1   1   3   0   1   1   0   0   1   0]</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[ 18 381 799  45  77   2  47  13  22   0   7   3   6   0   9   0  20   1
    0   0   1   0   0   0   1   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[ 32 706 455  54  81  11   5   7  56   0   2   1  13   6   1   0   8   2
    1   0   0   0   0   0   0   0   1   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>[104 112 154 122 182  79 120  84 103  45  83  35  61  37  23  13  23  15
    7   3   6   4   4   1   4   1   1   1   1   0   0   0]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>[ 24 485 365 278  93  12  13  17  12   3   3   1  11   2   2   2   2   0
    0   2   3   0   1   0   2   0   1   0   0   1   0   0]</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[ 50 681 465  89  63  12  16  18  13   6   5   8  22   2   1   0   0   0
    0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>[191 271 348 212 327 193 260 151 190 114 153  94  95  55  46  32  36  10
   10   3   5   2   3   2   2   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>[ 173  421 1054  180  233   72  179   83  107   24   39   30   29   21
    18   18   28    1    2    2    5    1    0    0    1    1    0    0
     1    0    0    0]</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[  97  322 1095  194  345   47  268   53   88   18   69   17   52   17
    29    7   50    7    9    2    6    0    1    0    0    0    0    0
     0    0    0    0]</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>[ 78 377 626  46 141   5   7   1  26   0   4   5  18   0   0   0  10   2
    1   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>[100 499 639  66  64  14  16   4  15   5   2   1   3   1   1   0   6   1
    2   0   1   0   2   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>[  8 110 708  93 356   3  34   1  61   1   3   0  13   0   3   0  39   1
    1   0   3   0   0   0   1   0   0   0   3   0   0   0]</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>mean_duration</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="H18" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="I18" t="n">
+        <v>45.11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="L18" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="R18" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="S18" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>43.38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>note_length_hist_numbers</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>[  0 140   0  48   0   5   0  88   0   9   0   3   1   1   0  21   0   0
    3   3   0   0   0   0   0   0   0   1   1   1   0   4   0   0   0   0
@@ -2090,7 +2230,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>[  1 175   0  81   0   3   0  63   0   3   0   4   2   2   0  10   0   2
    2   0   0   1   0   1   0   0   1   0   0   0   0   2   0   0   0   0
@@ -2098,7 +2238,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>[  0 204   0  78   0  17   0  47   0   7   0   4   0   1   0   9   0   1
    0   1   1   1   0   1   0   0   0   0   0   0   0   1   0   0   0   0
@@ -2106,7 +2246,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>[  0 469   0 273   0  15   0 330   0  29   0  21  12   7   0  86   0  12
    6   5   6   4   0   7   0   1   1   3   3   1   0  34   0   0   0   0
@@ -2114,7 +2254,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>[  0 404   0 229   0  72   0 428   0  14   0  13  10   7   0 124   0   4
    5   3   0   0   0   6   0   1   0   0   0   1   0   7   0   0   0   0
@@ -2122,7 +2262,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[  0 581   0 333   0  88   0 218   0  38   0  24   8   8   0  99   0   8
    2   6   2   2   0   9   0   4   0   3   1   1   0  15   0   0   0   0
@@ -2130,7 +2270,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>[  1 953   0 679   0  79   0 704   0  18   0  23   9  13   0 155   0   3
    3   9   7   5   1   5   0   4   1   7   1   3   0  62   0   0   0   0
@@ -2138,7 +2278,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[  2 473   0 557   0 347   0 545   0  42   0  64  25  29   0 312   0  14
    8  20   3  13   0  40   0  10   6   6   2   8   0 123   0   0   0   0
@@ -2146,7 +2286,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[   1 1175    0  485    0  125    0  703    0   38    0   39   10   12
     0   99    0    4    5   11    4    2    0    5    0    6    2    1
@@ -2155,7 +2295,7 @@
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[  0 350   0 235   0  58   0 450   0  12   0  16   8   6   0  77   0   3
    3   5   1   2   0   8   0   0   1   2   0   1   0  29   0   0   0   0
@@ -2163,7 +2303,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[  0 676   0 404   0  13   0 206   0  14   0  41   2   8   1  48   0   4
    1   3   1   1   0   3   0   0   2   3   0   0   0  22   0   0   0   0
@@ -2171,7 +2311,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[  0 819   0 207   0  46   0 247   0  50   0  14   4   6   0  30   0   4
    0   3   0   0   0   3   0   1   0   2   0   1   0   6   0   0   0   0
@@ -2179,7 +2319,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>[  3 462   0 392   0  71   0 296   0  23   0  31  10   8   0  85   0   5
    3   3   1   3   0  10   0   5   0   2   0   0   0  20   0   0   0   0
@@ -2187,7 +2327,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>[  0 423   0 423   0  36   0 294   0  27   0   5   2   3   0 109   0   1
    5   0   0   0   0   1   0   1   0   0   1   0   0   6   0   0   0   0
@@ -2195,7 +2335,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>[  0 758   0 273   0  17   0 305   0  14   0  14   2  13   0  31   0   9
    6   2   2   1   0   2   0   1   0   0   0   0   0   3   0   0   0   0
@@ -2203,7 +2343,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>[   0 1248    0  584    0  157    0  481    0   47    0   37    5   23
     0  133    0    7    2   15    1    3    0   13    0    6    1    2
@@ -2212,7 +2352,7 @@
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>[  0 847   0 543   0 199   0 664   0  84   0 123   6  12   0 136   0  13
    4  15   9   6   0  12   0   6   7   3   4   1   0  29   0   0   0   0
@@ -2220,7 +2360,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[  1 509   0 890   0  67   0 683   0  41   0 244   8  22   0 105   0  18
   10  19  18  13   0  33   0   6   3   6   1   5   0  89   0   0   0   0
@@ -2228,7 +2368,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>[  0 487   0 316   0  24   0 363   0  12   0   3   0   2   0 111   0   0
    1   2   3   3   0  14   0   0   3   0   0   1   0   2   0   0   0   0
@@ -2236,7 +2376,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>[  0 807   0 221   0  38   0 290   0  10   0   4   2   2   0  53   0   0
    0   1   0   0   0   1   0   0   0   0   0   0   0  11   0   0   0   0
@@ -2244,7 +2384,7 @@
    0   0   0   0   0   0   0   0   0   0]</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>[  0 333   0 471   0  51   0 301   0   7   0  25   7   6   0 175   0   5
    0   3   2   1   0   7   0   0   0   0   0   1   0  50   0   0   0   0
@@ -2253,125 +2393,125 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>note_length_hist_bins</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 140, 3: 0, 4: 48, 5: 0, 6: 5, 7: 0, 8: 88, 9: 0, 10: 9, 11: 0, 12: 3, 13: 1, 14: 1, 15: 0, 16: 21, 17: 0, 18: 0, 19: 3, 20: 3, 21: 0, 22: 0, 23: 0, 24: 0, 25: 0, 26: 0, 27: 0, 28: 1, 29: 1, 30: 1, 31: 0, 32: 4}</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 1, 2: 175, 3: 0, 4: 81, 5: 0, 6: 3, 7: 0, 8: 63, 9: 0, 10: 3, 11: 0, 12: 4, 13: 2, 14: 2, 15: 0, 16: 10, 17: 0, 18: 2, 19: 2, 20: 0, 21: 0, 22: 1, 23: 0, 24: 1, 25: 0, 26: 0, 27: 1, 28: 0, 29: 0, 30: 0, 31: 0, 32: 2}</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 204, 3: 0, 4: 78, 5: 0, 6: 17, 7: 0, 8: 47, 9: 0, 10: 7, 11: 0, 12: 4, 13: 0, 14: 1, 15: 0, 16: 9, 17: 0, 18: 1, 19: 0, 20: 1, 21: 1, 22: 1, 23: 0, 24: 1, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 1}</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 469, 3: 0, 4: 273, 5: 0, 6: 15, 7: 0, 8: 330, 9: 0, 10: 29, 11: 0, 12: 21, 13: 12, 14: 7, 15: 0, 16: 86, 17: 0, 18: 12, 19: 6, 20: 5, 21: 6, 22: 4, 23: 0, 24: 7, 25: 0, 26: 1, 27: 1, 28: 3, 29: 3, 30: 1, 31: 0, 32: 34}</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 404, 3: 0, 4: 229, 5: 0, 6: 72, 7: 0, 8: 428, 9: 0, 10: 14, 11: 0, 12: 13, 13: 10, 14: 7, 15: 0, 16: 124, 17: 0, 18: 4, 19: 5, 20: 3, 21: 0, 22: 0, 23: 0, 24: 6, 25: 0, 26: 1, 27: 0, 28: 0, 29: 0, 30: 1, 31: 0, 32: 7}</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 581, 3: 0, 4: 333, 5: 0, 6: 88, 7: 0, 8: 218, 9: 0, 10: 38, 11: 0, 12: 24, 13: 8, 14: 8, 15: 0, 16: 99, 17: 0, 18: 8, 19: 2, 20: 6, 21: 2, 22: 2, 23: 0, 24: 9, 25: 0, 26: 4, 27: 0, 28: 3, 29: 1, 30: 1, 31: 0, 32: 15}</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 1, 2: 953, 3: 0, 4: 679, 5: 0, 6: 79, 7: 0, 8: 704, 9: 0, 10: 18, 11: 0, 12: 23, 13: 9, 14: 13, 15: 0, 16: 155, 17: 0, 18: 3, 19: 3, 20: 9, 21: 7, 22: 5, 23: 1, 24: 5, 25: 0, 26: 4, 27: 1, 28: 7, 29: 1, 30: 3, 31: 0, 32: 62}</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 2, 2: 473, 3: 0, 4: 557, 5: 0, 6: 347, 7: 0, 8: 545, 9: 0, 10: 42, 11: 0, 12: 64, 13: 25, 14: 29, 15: 0, 16: 312, 17: 0, 18: 14, 19: 8, 20: 20, 21: 3, 22: 13, 23: 0, 24: 40, 25: 0, 26: 10, 27: 6, 28: 6, 29: 2, 30: 8, 31: 0, 32: 123}</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 1, 2: 1175, 3: 0, 4: 485, 5: 0, 6: 125, 7: 0, 8: 703, 9: 0, 10: 38, 11: 0, 12: 39, 13: 10, 14: 12, 15: 0, 16: 99, 17: 0, 18: 4, 19: 5, 20: 11, 21: 4, 22: 2, 23: 0, 24: 5, 25: 0, 26: 6, 27: 2, 28: 1, 29: 0, 30: 2, 31: 0, 32: 32}</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 350, 3: 0, 4: 235, 5: 0, 6: 58, 7: 0, 8: 450, 9: 0, 10: 12, 11: 0, 12: 16, 13: 8, 14: 6, 15: 0, 16: 77, 17: 0, 18: 3, 19: 3, 20: 5, 21: 1, 22: 2, 23: 0, 24: 8, 25: 0, 26: 0, 27: 1, 28: 2, 29: 0, 30: 1, 31: 0, 32: 29}</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 676, 3: 0, 4: 404, 5: 0, 6: 13, 7: 0, 8: 206, 9: 0, 10: 14, 11: 0, 12: 41, 13: 2, 14: 8, 15: 1, 16: 48, 17: 0, 18: 4, 19: 1, 20: 3, 21: 1, 22: 1, 23: 0, 24: 3, 25: 0, 26: 0, 27: 2, 28: 3, 29: 0, 30: 0, 31: 0, 32: 22}</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 819, 3: 0, 4: 207, 5: 0, 6: 46, 7: 0, 8: 247, 9: 0, 10: 50, 11: 0, 12: 14, 13: 4, 14: 6, 15: 0, 16: 30, 17: 0, 18: 4, 19: 0, 20: 3, 21: 0, 22: 0, 23: 0, 24: 3, 25: 0, 26: 1, 27: 0, 28: 2, 29: 0, 30: 1, 31: 0, 32: 6}</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 3, 2: 462, 3: 0, 4: 392, 5: 0, 6: 71, 7: 0, 8: 296, 9: 0, 10: 23, 11: 0, 12: 31, 13: 10, 14: 8, 15: 0, 16: 85, 17: 0, 18: 5, 19: 3, 20: 3, 21: 1, 22: 3, 23: 0, 24: 10, 25: 0, 26: 5, 27: 0, 28: 2, 29: 0, 30: 0, 31: 0, 32: 20}</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 423, 3: 0, 4: 423, 5: 0, 6: 36, 7: 0, 8: 294, 9: 0, 10: 27, 11: 0, 12: 5, 13: 2, 14: 3, 15: 0, 16: 109, 17: 0, 18: 1, 19: 5, 20: 0, 21: 0, 22: 0, 23: 0, 24: 1, 25: 0, 26: 1, 27: 0, 28: 0, 29: 1, 30: 0, 31: 0, 32: 6}</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 758, 3: 0, 4: 273, 5: 0, 6: 17, 7: 0, 8: 305, 9: 0, 10: 14, 11: 0, 12: 14, 13: 2, 14: 13, 15: 0, 16: 31, 17: 0, 18: 9, 19: 6, 20: 2, 21: 2, 22: 1, 23: 0, 24: 2, 25: 0, 26: 1, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 3}</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 1248, 3: 0, 4: 584, 5: 0, 6: 157, 7: 0, 8: 481, 9: 0, 10: 47, 11: 0, 12: 37, 13: 5, 14: 23, 15: 0, 16: 133, 17: 0, 18: 7, 19: 2, 20: 15, 21: 1, 22: 3, 23: 0, 24: 13, 25: 0, 26: 6, 27: 1, 28: 2, 29: 0, 30: 1, 31: 0, 32: 39}</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 847, 3: 0, 4: 543, 5: 0, 6: 199, 7: 0, 8: 664, 9: 0, 10: 84, 11: 0, 12: 123, 13: 6, 14: 12, 15: 0, 16: 136, 17: 0, 18: 13, 19: 4, 20: 15, 21: 9, 22: 6, 23: 0, 24: 12, 25: 0, 26: 6, 27: 7, 28: 3, 29: 4, 30: 1, 31: 0, 32: 29}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 1, 2: 509, 3: 0, 4: 890, 5: 0, 6: 67, 7: 0, 8: 683, 9: 0, 10: 41, 11: 0, 12: 244, 13: 8, 14: 22, 15: 0, 16: 105, 17: 0, 18: 18, 19: 10, 20: 19, 21: 18, 22: 13, 23: 0, 24: 33, 25: 0, 26: 6, 27: 3, 28: 6, 29: 1, 30: 5, 31: 0, 32: 89}</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 487, 3: 0, 4: 316, 5: 0, 6: 24, 7: 0, 8: 363, 9: 0, 10: 12, 11: 0, 12: 3, 13: 0, 14: 2, 15: 0, 16: 111, 17: 0, 18: 0, 19: 1, 20: 2, 21: 3, 22: 3, 23: 0, 24: 14, 25: 0, 26: 0, 27: 3, 28: 0, 29: 0, 30: 1, 31: 0, 32: 2}</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 807, 3: 0, 4: 221, 5: 0, 6: 38, 7: 0, 8: 290, 9: 0, 10: 10, 11: 0, 12: 4, 13: 2, 14: 2, 15: 0, 16: 53, 17: 0, 18: 0, 19: 0, 20: 1, 21: 0, 22: 0, 23: 0, 24: 1, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 11}</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 0, 2: 333, 3: 0, 4: 471, 5: 0, 6: 51, 7: 0, 8: 301, 9: 0, 10: 7, 11: 0, 12: 25, 13: 7, 14: 6, 15: 0, 16: 175, 17: 0, 18: 5, 19: 0, 20: 3, 21: 2, 22: 1, 23: 0, 24: 7, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 1, 31: 0, 32: 50}</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>note_length_transition_matrix</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>[[ 0  0  0 ...  0  0  0]
  [ 0 83  0 ...  1  0  2]
@@ -2382,7 +2522,7 @@
  [ 0  2  0 ...  0  0  0]]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>[[ 0  1  0 ...  0  0  0]
  [ 0 96  0 ...  0  0  1]
@@ -2393,7 +2533,7 @@
  [ 0  1  0 ...  0  0  0]]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 132   0 ...   0   0   0]
@@ -2404,7 +2544,7 @@
  [  0   1   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 190   0 ...   1   0  11]
@@ -2415,7 +2555,7 @@
  [  0  12   0 ...   0   0   1]]</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 272   0 ...   0   0   2]
@@ -2426,7 +2566,7 @@
  [  0   1   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 279   0 ...   0   0   4]
@@ -2437,7 +2577,7 @@
  [  0   8   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 568   0 ...   0   0  13]
@@ -2448,7 +2588,7 @@
  [  0   9   0 ...   0   0   4]]</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 152   0 ...   0   0  17]
@@ -2459,7 +2599,7 @@
  [  0  13   0 ...   0   0  15]]</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 662   0 ...   0   0   5]
@@ -2470,7 +2610,7 @@
  [  0   6   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 115   0 ...   0   0   8]
@@ -2481,7 +2621,7 @@
  [  0   5   0 ...   0   0   1]]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 363   0 ...   0   0   2]
@@ -2492,7 +2632,7 @@
  [  0   3   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 553   0 ...   0   0   1]
@@ -2503,7 +2643,7 @@
  [  0   1   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  1 183   0 ...   0   0   9]
@@ -2514,7 +2654,7 @@
  [  0   4   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 202   0 ...   0   0   3]
@@ -2525,7 +2665,7 @@
  [  0   3   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 416   0 ...   0   0   3]
@@ -2536,7 +2676,7 @@
  [  0   1   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 564   0 ...   1   0  15]
@@ -2547,7 +2687,7 @@
  [  0  16   0 ...   0   0   2]]</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 389   0 ...   0   0   3]
@@ -2558,7 +2698,7 @@
  [  0   1   0 ...   1   0   1]]</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 241   0 ...   0   0   6]
@@ -2569,7 +2709,7 @@
  [  0  13   0 ...   0   0   5]]</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 231   0 ...   0   0   1]
@@ -2580,7 +2720,7 @@
  [  0   1   0 ...   0   0   0]]</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 519   0 ...   0   0   0]
@@ -2591,7 +2731,7 @@
  [  0   5   0 ...   0   0   1]]</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>[[  0   0   0 ...   0   0   0]
  [  0 151   0 ...   1   0   0]

--- a/0_data/8_predictions/model_evaluation.xlsx
+++ b/0_data/8_predictions/model_evaluation.xlsx
@@ -2153,67 +2153,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.29</v>
+        <v>6.29</v>
       </c>
       <c r="C18" t="n">
-        <v>40.96</v>
+        <v>4.96</v>
       </c>
       <c r="D18" t="n">
-        <v>40.44</v>
+        <v>4.44</v>
       </c>
       <c r="E18" t="n">
-        <v>42.93</v>
+        <v>6.93</v>
       </c>
       <c r="F18" t="n">
-        <v>42.93</v>
+        <v>6.93</v>
       </c>
       <c r="G18" t="n">
-        <v>41.94</v>
+        <v>5.94</v>
       </c>
       <c r="H18" t="n">
-        <v>42.39</v>
+        <v>6.39</v>
       </c>
       <c r="I18" t="n">
-        <v>45.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>41.7</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
-        <v>42.99</v>
+        <v>6.99</v>
       </c>
       <c r="L18" t="n">
-        <v>41.16</v>
+        <v>5.16</v>
       </c>
       <c r="M18" t="n">
-        <v>40.7</v>
+        <v>4.7</v>
       </c>
       <c r="N18" t="n">
-        <v>42.2</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>41.84</v>
+        <v>5.84</v>
       </c>
       <c r="P18" t="n">
-        <v>40.69</v>
+        <v>4.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.54</v>
+        <v>5.54</v>
       </c>
       <c r="R18" t="n">
-        <v>42.63</v>
+        <v>6.63</v>
       </c>
       <c r="S18" t="n">
-        <v>43.7</v>
+        <v>7.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>5.9</v>
       </c>
       <c r="U18" t="n">
-        <v>40.7</v>
+        <v>4.7</v>
       </c>
       <c r="V18" t="n">
-        <v>43.38</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="19">
